--- a/doc/Odoo加速计算器.xlsx
+++ b/doc/Odoo加速计算器.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7315BF03-1DAC-4D44-931C-314A274B62BB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="workers " sheetId="1" r:id="rId1"/>
@@ -12,7 +13,7 @@
     <sheet name="limit-memory-hard" sheetId="6" r:id="rId3"/>
     <sheet name="limit-memory-soft " sheetId="5" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="30">
   <si>
     <t>CPU数量</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -96,15 +97,59 @@
   </si>
   <si>
     <t>填写CPU数量和CPU线程数量，计算workers</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看物理CPU个数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cat /proc/cpuinfo| grep "physical id"| sort| uniq| wc -l</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看每个物理CPU中core的个数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cat /proc/cpuinfo| grep "cpu cores"| uniq</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看逻辑CPU的个数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cat /proc/cpuinfo| grep "processor"| wc -l</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看总线程数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rep 'processor' /proc/cpuinfo | sort -u | wc -l</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看CPU信息（型号）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cat /proc/cpuinfo | grep name | cut -f2 -d: | uniq -c</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="181" formatCode="#,##0_ "/>
+    <numFmt numFmtId="176" formatCode="#,##0_ "/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -198,16 +243,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="181" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -216,6 +258,9 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -496,83 +541,126 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.125" customWidth="1"/>
-    <col min="2" max="2" width="9.25" customWidth="1"/>
+    <col min="1" max="1" width="18.5" customWidth="1"/>
+    <col min="2" max="2" width="11.25" customWidth="1"/>
     <col min="3" max="3" width="66.875" customWidth="1"/>
     <col min="4" max="4" width="2.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
     </row>
     <row r="2" spans="1:3" ht="18" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
     </row>
     <row r="3" spans="1:3" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
     </row>
     <row r="5" spans="1:3" ht="18" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
     </row>
     <row r="6" spans="1:3" ht="18" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="9">
+      <c r="B6" s="8">
         <v>1</v>
       </c>
-      <c r="C6" s="6"/>
+      <c r="C6" s="5"/>
     </row>
     <row r="7" spans="1:3" ht="18" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="9">
+      <c r="B7" s="8">
         <v>4</v>
       </c>
-      <c r="C7" s="6"/>
+      <c r="C7" s="5"/>
     </row>
     <row r="8" spans="1:3" ht="18" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="9">
+      <c r="B8" s="8">
         <f>(B6*B7*2)+1</f>
         <v>9</v>
       </c>
-      <c r="C8" s="6"/>
+      <c r="C8" s="5"/>
     </row>
     <row r="12" spans="1:3" ht="18" x14ac:dyDescent="0.25">
-      <c r="A12" s="12" t="s">
+      <c r="A12" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="12"/>
-      <c r="C12" s="12"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>28</v>
+      </c>
+      <c r="C24" t="s">
+        <v>29</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -587,7 +675,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -603,32 +691,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
+      <c r="B3" s="12"/>
+      <c r="C3" s="12"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
@@ -645,7 +733,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -664,79 +752,79 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
+      <c r="B3" s="12"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
     </row>
     <row r="5" spans="1:4" ht="18" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
     </row>
     <row r="6" spans="1:4" ht="18" x14ac:dyDescent="0.25">
-      <c r="A6" s="5"/>
-      <c r="B6" s="6">
+      <c r="A6" s="4"/>
+      <c r="B6" s="5">
         <v>768</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="6"/>
+      <c r="D6" s="5"/>
     </row>
     <row r="7" spans="1:4" ht="18" x14ac:dyDescent="0.25">
-      <c r="A7" s="5"/>
-      <c r="B7" s="6">
+      <c r="A7" s="4"/>
+      <c r="B7" s="5">
         <f>'workers '!B8</f>
         <v>9</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="6"/>
+      <c r="D7" s="5"/>
     </row>
     <row r="8" spans="1:4" ht="18" x14ac:dyDescent="0.25">
-      <c r="A8" s="5"/>
-      <c r="B8" s="6">
+      <c r="A8" s="4"/>
+      <c r="B8" s="5">
         <f>B6*B7</f>
         <v>6912</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="C8" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="6"/>
+      <c r="D8" s="5"/>
     </row>
     <row r="9" spans="1:4" ht="18" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="7">
+      <c r="B9" s="6">
         <f>B8*1024*1024</f>
         <v>7247757312</v>
       </c>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
@@ -754,7 +842,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -772,81 +860,81 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
+      <c r="B3" s="12"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
     </row>
     <row r="5" spans="1:4" ht="18" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
     </row>
     <row r="6" spans="1:4" ht="18" x14ac:dyDescent="0.25">
-      <c r="A6" s="5"/>
-      <c r="B6" s="6">
+      <c r="A6" s="4"/>
+      <c r="B6" s="5">
         <v>640</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="6"/>
+      <c r="D6" s="5"/>
     </row>
     <row r="7" spans="1:4" ht="18" x14ac:dyDescent="0.25">
-      <c r="A7" s="5"/>
-      <c r="B7" s="6">
+      <c r="A7" s="4"/>
+      <c r="B7" s="5">
         <f>'workers '!B8</f>
         <v>9</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="6"/>
+      <c r="D7" s="5"/>
     </row>
     <row r="8" spans="1:4" ht="18" x14ac:dyDescent="0.25">
-      <c r="A8" s="5"/>
-      <c r="B8" s="6">
+      <c r="A8" s="4"/>
+      <c r="B8" s="5">
         <f>B6*B7</f>
         <v>5760</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="C8" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="6"/>
+      <c r="D8" s="5"/>
     </row>
     <row r="9" spans="1:4" ht="18" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="7">
+      <c r="B9" s="6">
         <f>B8*1024*1024</f>
         <v>6039797760</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="6"/>
+      <c r="D9" s="5"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
